--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,13 +14,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loans.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_col</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -386,6 +398,19 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,6 +33,10 @@
   </si>
   <si>
     <t>y_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,6 +414,9 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,14 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_date,application_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -418,6 +426,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>issue_date,application_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_date,application_time,grade,installment,total_credit_utilized,accounts,state,vector_feature,non_decimal_feature,sentence_feature,y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -434,6 +442,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>issue_date,application_time,grade,installment,total_credit_utilized,accounts,state,vector_feature,non_decimal_feature,sentence_feature,y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null_threshhold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -450,6 +454,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,26 @@
   </si>
   <si>
     <t>null_threshhold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discrete_thresh_hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null_imp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iqr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -462,6 +482,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,26 @@
   </si>
   <si>
     <t>test_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixed_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixed_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discretiser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_credit_utilized,installment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -514,6 +534,29 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,38 @@
   </si>
   <si>
     <t>total_credit_utilized,installment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discretiser_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equalfixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ohe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outlier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>installment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minmax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -557,6 +589,38 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,22 @@
   </si>
   <si>
     <t>minmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector_feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,6 +637,22 @@
         <v>28</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,26 @@
   </si>
   <si>
     <t>vector_feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pca_n_components</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_dec_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non_decimal_feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence_feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,13 +514,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -651,6 +674,27 @@
       </c>
       <c r="B20" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/config/argumet_loans.xlsx
+++ b/config/argumet_loans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>file_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>sentence_feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentence_embedding_dims_to_keep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,15 +522,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -695,6 +704,19 @@
       </c>
       <c r="B23" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
